--- a/data/trans_orig/P21B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6522</v>
+        <v>7454</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01358165544470371</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004194947867817837</v>
+        <v>0.004178447726265059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03297589152460965</v>
+        <v>0.03768534295119967</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6690</v>
+        <v>7682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006294159186750034</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01959171936665198</v>
+        <v>0.02249752361574288</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>4836</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1797</v>
+        <v>1851</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10512</v>
+        <v>10702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008967041036816087</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003332596987284912</v>
+        <v>0.003432303633628515</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01949379256353323</v>
+        <v>0.01984647804990135</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9221</v>
+        <v>9068</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01963739377503346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005362728269999728</v>
+        <v>0.005270548922180104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04662303578024874</v>
+        <v>0.04584741384449954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -839,16 +839,16 @@
         <v>1017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10409</v>
+        <v>10646</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01193918181522689</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002978521167850746</v>
+        <v>0.002979033651574563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03048279360150857</v>
+        <v>0.03117781759516531</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -857,19 +857,19 @@
         <v>7961</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3815</v>
+        <v>3725</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15439</v>
+        <v>14863</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0147627045035399</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007074619581936264</v>
+        <v>0.006907281862918129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0286306525030418</v>
+        <v>0.02756271686800861</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>3662</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10714</v>
+        <v>10498</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01851515091122172</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004988849693814935</v>
+        <v>0.004978664460890517</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05416900064407567</v>
+        <v>0.05307937606484961</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -907,19 +907,19 @@
         <v>2730</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8394</v>
+        <v>7652</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007994325515377031</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002157800034359396</v>
+        <v>0.002152077684720049</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02458311259240909</v>
+        <v>0.02240920077476463</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -928,19 +928,19 @@
         <v>6392</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2658</v>
+        <v>2359</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13405</v>
+        <v>14710</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01185311627874458</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004928399415229461</v>
+        <v>0.004373674503786107</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02485926179980146</v>
+        <v>0.02727884677469844</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>48752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36617</v>
+        <v>37584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60125</v>
+        <v>60337</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2464901849806433</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1851372376085008</v>
+        <v>0.1900226017117959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3039917867310193</v>
+        <v>0.3050657392225601</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -978,19 +978,19 @@
         <v>92161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77056</v>
+        <v>77596</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109112</v>
+        <v>108662</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2698969688814427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.225661276594417</v>
+        <v>0.2272410478436406</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3195374188436579</v>
+        <v>0.3182195893774459</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -999,19 +999,19 @@
         <v>140913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122103</v>
+        <v>121090</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162530</v>
+        <v>162881</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2613119122800643</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2264305075568109</v>
+        <v>0.2245514720373624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3013983515375268</v>
+        <v>0.3020492958730468</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>138801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124701</v>
+        <v>126701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>151310</v>
+        <v>150265</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7017756148883978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.630488612042021</v>
+        <v>0.6405973451344118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.765024366808744</v>
+        <v>0.7597393246259152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>236</v>
@@ -1049,19 +1049,19 @@
         <v>240351</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>222484</v>
+        <v>224275</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>256167</v>
+        <v>256913</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7038753646012034</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6515525385999532</v>
+        <v>0.6567952099809883</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7501930379047062</v>
+        <v>0.7523783051792298</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>378</v>
@@ -1070,19 +1070,19 @@
         <v>379152</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>357350</v>
+        <v>355415</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>399296</v>
+        <v>400891</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.703105225900835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6626754625690096</v>
+        <v>0.659088014628011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7404604475955963</v>
+        <v>0.7434197658944365</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4233</v>
+        <v>3716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00196526445905006</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01124564571621986</v>
+        <v>0.009870023102477123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5062</v>
+        <v>3524</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001125199234614918</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007699034715517545</v>
+        <v>0.00536015198748916</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>2674</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7151</v>
+        <v>7248</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009515742555662498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003128585905970408</v>
+        <v>0.003121648894774788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02544208971641224</v>
+        <v>0.02578901377629704</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1258,19 +1258,19 @@
         <v>6573</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2641</v>
+        <v>2753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13937</v>
+        <v>14095</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01746109513795001</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007014669276780022</v>
+        <v>0.007313654384385968</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03702193873193595</v>
+        <v>0.03744135333946559</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1279,19 +1279,19 @@
         <v>9248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4580</v>
+        <v>4578</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17218</v>
+        <v>17183</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01406480189633612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006965105651979714</v>
+        <v>0.00696339848571462</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02618701057474962</v>
+        <v>0.0261341802437085</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>4572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>908</v>
+        <v>1346</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11408</v>
+        <v>11707</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01626761710347562</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00322961531175808</v>
+        <v>0.004789663788868567</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04059045418953705</v>
+        <v>0.04165253953548984</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1329,19 +1329,19 @@
         <v>3962</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8896</v>
+        <v>10054</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01052411658800517</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002602276317066035</v>
+        <v>0.002635552227966229</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02363100031224337</v>
+        <v>0.02670740996456975</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1350,19 +1350,19 @@
         <v>8534</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3887</v>
+        <v>3859</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16053</v>
+        <v>16799</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01297921367550058</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005911325562134699</v>
+        <v>0.005868898553653694</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02441496809194893</v>
+        <v>0.02554921428433618</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>66973</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53111</v>
+        <v>53257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83235</v>
+        <v>82752</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2382955676235951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1889733991599799</v>
+        <v>0.1894899452537724</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2961547538915748</v>
+        <v>0.2944361020993329</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -1400,19 +1400,19 @@
         <v>115138</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97853</v>
+        <v>96897</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133081</v>
+        <v>133146</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3058540655971358</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.259938560527077</v>
+        <v>0.2573984974659366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3535175879292417</v>
+        <v>0.3536916148557432</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>178</v>
@@ -1421,19 +1421,19 @@
         <v>182111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159418</v>
+        <v>161959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>206360</v>
+        <v>204256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2769757411043211</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2424604507343767</v>
+        <v>0.2463256777147032</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.313855440090576</v>
+        <v>0.3106558053489077</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>206832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190711</v>
+        <v>190897</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>221572</v>
+        <v>221551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7359210727172668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.678562870596456</v>
+        <v>0.6792228230246359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7883658863403604</v>
+        <v>0.7882925257507044</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>242</v>
@@ -1471,19 +1471,19 @@
         <v>250034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>232235</v>
+        <v>231359</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267376</v>
+        <v>269522</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.664195458217859</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.616913333798029</v>
+        <v>0.614586418301151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7102627393081861</v>
+        <v>0.7159630234328007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>443</v>
@@ -1492,19 +1492,19 @@
         <v>456866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>431099</v>
+        <v>434091</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>479975</v>
+        <v>479657</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6948550440892273</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6556655679659027</v>
+        <v>0.6602155385717595</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7300003574682981</v>
+        <v>0.7295172516925837</v>
       </c>
     </row>
     <row r="15">
@@ -1643,19 +1643,19 @@
         <v>3634</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11936</v>
+        <v>10396</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0456439568517905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01164864567713697</v>
+        <v>0.01169604177874304</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.149937581832846</v>
+        <v>0.1305857549587009</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1664,19 +1664,19 @@
         <v>2983</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8245</v>
+        <v>8604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02811586051632551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00791214804682955</v>
+        <v>0.008059145430618335</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07771515636634234</v>
+        <v>0.08110119094021696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1685,19 +1685,19 @@
         <v>6617</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2589</v>
+        <v>2751</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13973</v>
+        <v>14282</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03562992570442492</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01394119309913642</v>
+        <v>0.01481212288246434</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07524341684086416</v>
+        <v>0.07690673748511521</v>
       </c>
     </row>
     <row r="18">
@@ -1714,19 +1714,19 @@
         <v>4356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1012</v>
+        <v>1422</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10281</v>
+        <v>10481</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05471479777452919</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01271095002841803</v>
+        <v>0.01786150564612869</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1291503405820258</v>
+        <v>0.1316548751570795</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1735,19 +1735,19 @@
         <v>3504</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9537</v>
+        <v>10136</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0330288758543519</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008722503470952407</v>
+        <v>0.00880303614380829</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08989218851701196</v>
+        <v>0.09554215896789518</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1756,19 +1756,19 @@
         <v>7860</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3503</v>
+        <v>3485</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15712</v>
+        <v>15749</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04232534638107686</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01886514448025063</v>
+        <v>0.01876799276769597</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08460614311754638</v>
+        <v>0.08480741143548716</v>
       </c>
     </row>
     <row r="19">
@@ -1785,19 +1785,19 @@
         <v>21720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14285</v>
+        <v>14072</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30287</v>
+        <v>30927</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2728322883119744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1794429789675274</v>
+        <v>0.1767644444761878</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3804482013284815</v>
+        <v>0.3884936044940406</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1806,19 +1806,19 @@
         <v>22659</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15037</v>
+        <v>14824</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32287</v>
+        <v>32148</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2135719056339473</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1417304592018619</v>
+        <v>0.1397233763723632</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.304328288791541</v>
+        <v>0.3030140839582103</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1827,19 +1827,19 @@
         <v>44379</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32479</v>
+        <v>33237</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56827</v>
+        <v>56089</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2389760550630816</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1748972283877716</v>
+        <v>0.1789774254682752</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3060125330758311</v>
+        <v>0.3020350621619624</v>
       </c>
     </row>
     <row r="20">
@@ -1856,19 +1856,19 @@
         <v>49899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40393</v>
+        <v>39918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58215</v>
+        <v>59103</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6268089570617059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5074007891619837</v>
+        <v>0.5014312564363524</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7312704523770297</v>
+        <v>0.7424284020545348</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>73</v>
@@ -1877,19 +1877,19 @@
         <v>76948</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67948</v>
+        <v>67321</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86048</v>
+        <v>86238</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7252833579953752</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6404550232828707</v>
+        <v>0.6345434430840056</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8110576584948299</v>
+        <v>0.8128449056653464</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -1898,19 +1898,19 @@
         <v>126848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>113125</v>
+        <v>112984</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>139773</v>
+        <v>138391</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6830686728514167</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6091719180080168</v>
+        <v>0.6084149815457039</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7526672673997271</v>
+        <v>0.7452261078497746</v>
       </c>
     </row>
     <row r="21">
@@ -2002,19 +2002,19 @@
         <v>2686</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7190</v>
+        <v>7290</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004810227044308192</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001468336881503951</v>
+        <v>0.001489892474010832</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01287575282132472</v>
+        <v>0.01305410193323942</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2023,19 +2023,19 @@
         <v>2889</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8146</v>
+        <v>7463</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003506114334318771</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0009023749154532572</v>
+        <v>0.0008915016460693502</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009885805107661407</v>
+        <v>0.009056997756910564</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2044,19 +2044,19 @@
         <v>5575</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2121</v>
+        <v>2368</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11732</v>
+        <v>10850</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004032913779798131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001533879205615712</v>
+        <v>0.001713106147197085</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008486130181520732</v>
+        <v>0.007848212159243128</v>
       </c>
     </row>
     <row r="23">
@@ -2073,19 +2073,19 @@
         <v>10192</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4781</v>
+        <v>5411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18570</v>
+        <v>19016</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01825074006506551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008561901562776192</v>
+        <v>0.009690201618112706</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03325283153042422</v>
+        <v>0.03405096583262971</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2094,19 +2094,19 @@
         <v>13633</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7282</v>
+        <v>7508</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23167</v>
+        <v>22737</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01654466953488669</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008837800102296412</v>
+        <v>0.009111796532797875</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02811473567240877</v>
+        <v>0.02759268178597524</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -2115,19 +2115,19 @@
         <v>23825</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14666</v>
+        <v>15613</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>34790</v>
+        <v>35641</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01723384080234115</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0106088805562506</v>
+        <v>0.01129367088285895</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02516548821322665</v>
+        <v>0.02578083302090571</v>
       </c>
     </row>
     <row r="24">
@@ -2144,19 +2144,19 @@
         <v>12590</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7123</v>
+        <v>6550</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22466</v>
+        <v>21698</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02254440817745234</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01275461620961515</v>
+        <v>0.01172941426309765</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04022904566728256</v>
+        <v>0.03885412390173782</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2165,19 +2165,19 @@
         <v>10196</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4981</v>
+        <v>4923</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17691</v>
+        <v>17955</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01237335610392392</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006045249235230398</v>
+        <v>0.005974434996229924</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02146908670566572</v>
+        <v>0.02178995190228773</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -2186,19 +2186,19 @@
         <v>22786</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14709</v>
+        <v>13978</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34772</v>
+        <v>34470</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01648197689354872</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01063941879571723</v>
+        <v>0.0101108988634877</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02515250322841318</v>
+        <v>0.02493364005403606</v>
       </c>
     </row>
     <row r="25">
@@ -2215,19 +2215,19 @@
         <v>137445</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118751</v>
+        <v>117309</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>161035</v>
+        <v>158752</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2461211928504486</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2126452764382909</v>
+        <v>0.2100639743971352</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2883633313229093</v>
+        <v>0.2842754600606421</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>226</v>
@@ -2236,19 +2236,19 @@
         <v>229958</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>202211</v>
+        <v>205249</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>255781</v>
+        <v>257736</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2790718062582075</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2453995631148755</v>
+        <v>0.2490861319279664</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3104106898714341</v>
+        <v>0.3127824792580646</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>361</v>
@@ -2257,19 +2257,19 @@
         <v>367403</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>335069</v>
+        <v>334383</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>403305</v>
+        <v>403673</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2657613272340801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2423728940278022</v>
+        <v>0.2418766856084048</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2917311670086036</v>
+        <v>0.2919973769631125</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>395532</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>369564</v>
+        <v>373356</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>414502</v>
+        <v>418610</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7082734318627253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6617716334189434</v>
+        <v>0.668561970340009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7422421148617749</v>
+        <v>0.7495987954508234</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>551</v>
@@ -2307,19 +2307,19 @@
         <v>567334</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>539552</v>
+        <v>541267</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>595384</v>
+        <v>595425</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6885040537686632</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6547892511287289</v>
+        <v>0.6568698685621358</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.722545431482288</v>
+        <v>0.7225947238184078</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>939</v>
@@ -2328,19 +2328,19 @@
         <v>962865</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>925878</v>
+        <v>924955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>995718</v>
+        <v>995427</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6964899412902319</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6697348757243996</v>
+        <v>0.6690673679091247</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7202542320578068</v>
+        <v>0.7200435670893487</v>
       </c>
     </row>
     <row r="27">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4389</v>
+        <v>5502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004343746630081452</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01756500153877481</v>
+        <v>0.02201857319685659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5066</v>
+        <v>5459</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001645431182607035</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007678982407701952</v>
+        <v>0.008275076145699506</v>
       </c>
     </row>
     <row r="5">
@@ -2734,19 +2734,19 @@
         <v>2935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7840</v>
+        <v>7844</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01174349276494497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003717177680319267</v>
+        <v>0.003678369582325723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03137414380985458</v>
+        <v>0.03138703070616524</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7256</v>
+        <v>7528</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005035374701772869</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01770704787073316</v>
+        <v>0.01836945192719115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -2776,19 +2776,19 @@
         <v>4998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1963</v>
+        <v>1927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10800</v>
+        <v>10855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007576440647312585</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002975876242121126</v>
+        <v>0.002920841393917737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01637154768839628</v>
+        <v>0.01645419841419596</v>
       </c>
     </row>
     <row r="6">
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6437</v>
+        <v>6241</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005045535119450537</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02575754235972637</v>
+        <v>0.0249733376194711</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9784</v>
+        <v>11822</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006763812046899035</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02387424946358564</v>
+        <v>0.02884816274353631</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -2847,19 +2847,19 @@
         <v>4033</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11429</v>
+        <v>12003</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006112920851450798</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001467013783836272</v>
+        <v>0.001459000396263167</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01732418591685446</v>
+        <v>0.01819518668343561</v>
       </c>
     </row>
     <row r="7">
@@ -2876,19 +2876,19 @@
         <v>84363</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69273</v>
+        <v>69774</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99570</v>
+        <v>99316</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.337588790440633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2772027635317342</v>
+        <v>0.2792058292965107</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3984411212750188</v>
+        <v>0.3974225028616168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -2897,19 +2897,19 @@
         <v>125577</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107305</v>
+        <v>106458</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145186</v>
+        <v>144366</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3064295697804383</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2618431512390508</v>
+        <v>0.2597765877248314</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3542792866846564</v>
+        <v>0.3522770035232757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>193</v>
@@ -2918,19 +2918,19 @@
         <v>209940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>184238</v>
+        <v>185772</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>232927</v>
+        <v>236118</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3182328257403874</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2792728957989609</v>
+        <v>0.2815976720243729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3530766903169351</v>
+        <v>0.3579133340551654</v>
       </c>
     </row>
     <row r="8">
@@ -2947,19 +2947,19 @@
         <v>160255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>144258</v>
+        <v>145668</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>175781</v>
+        <v>175552</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.64127843504489</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5772616116061366</v>
+        <v>0.5829062765474128</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7034036201164853</v>
+        <v>0.7024897841520323</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>264</v>
@@ -2968,19 +2968,19 @@
         <v>279395</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>260321</v>
+        <v>261247</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>297911</v>
+        <v>299128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6817712434708898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6352284887064664</v>
+        <v>0.6374881071034206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7269543327242763</v>
+        <v>0.7299236052261313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>412</v>
@@ -2989,19 +2989,19 @@
         <v>439649</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>415171</v>
+        <v>413113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>465011</v>
+        <v>464831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6664323815782421</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6293276533958642</v>
+        <v>0.6262073386340417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7048759217400649</v>
+        <v>0.7046028390247772</v>
       </c>
     </row>
     <row r="9">
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4794</v>
+        <v>4516</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002388801727948491</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01250072455926822</v>
+        <v>0.01177504010613236</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5343</v>
+        <v>5171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001097721935664884</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006402468925265735</v>
+        <v>0.00619586603484596</v>
       </c>
     </row>
     <row r="11">
@@ -3169,19 +3169,19 @@
         <v>6767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2892</v>
+        <v>2842</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15556</v>
+        <v>18208</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01500293133494991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006411172127026848</v>
+        <v>0.006299715620012106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03448815377489936</v>
+        <v>0.04036707206869338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -3190,19 +3190,19 @@
         <v>6767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2838</v>
+        <v>2802</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14650</v>
+        <v>14518</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008108660189310621</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003400701093767712</v>
+        <v>0.003357812573795139</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01755427512405002</v>
+        <v>0.01739553906302095</v>
       </c>
     </row>
     <row r="12">
@@ -3219,19 +3219,19 @@
         <v>7964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3088</v>
+        <v>3848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17109</v>
+        <v>17575</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02076633560165108</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008052564677591358</v>
+        <v>0.01003472997220711</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04461117895304191</v>
+        <v>0.0458262676804819</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -3240,19 +3240,19 @@
         <v>5756</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2806</v>
+        <v>1967</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11642</v>
+        <v>12397</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0127607267167322</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006221313880167711</v>
+        <v>0.004360751319194394</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02580965515627467</v>
+        <v>0.02748402330415448</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -3261,19 +3261,19 @@
         <v>13720</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7703</v>
+        <v>7762</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22841</v>
+        <v>23910</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01643953035225881</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009229932907008409</v>
+        <v>0.009300381430880205</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02736864330649587</v>
+        <v>0.02864915014085108</v>
       </c>
     </row>
     <row r="13">
@@ -3290,19 +3290,19 @@
         <v>128301</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110319</v>
+        <v>108776</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148881</v>
+        <v>149126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3345433376296591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2876544581828912</v>
+        <v>0.2836332367909584</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3882045185268289</v>
+        <v>0.3888429725362049</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -3311,19 +3311,19 @@
         <v>154134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134026</v>
+        <v>133835</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174366</v>
+        <v>175534</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3417114299779609</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2971331056431228</v>
+        <v>0.2967081904708826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3865654047486393</v>
+        <v>0.3891537205488255</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>264</v>
@@ -3332,19 +3332,19 @@
         <v>282435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>254873</v>
+        <v>253154</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>310675</v>
+        <v>311615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3384174888711952</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.305392412032168</v>
+        <v>0.3033318736916351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3722551522029919</v>
+        <v>0.3733810825374396</v>
       </c>
     </row>
     <row r="14">
@@ -3361,19 +3361,19 @@
         <v>246330</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>226625</v>
+        <v>227092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>266152</v>
+        <v>265733</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6423015250407413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5909223807129347</v>
+        <v>0.5921394709419423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6939879250843179</v>
+        <v>0.6928950207715407</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>263</v>
@@ -3382,19 +3382,19 @@
         <v>284408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>262841</v>
+        <v>263011</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>304286</v>
+        <v>304673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.630524911970357</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5827111103711287</v>
+        <v>0.5830896499962858</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6745950902580835</v>
+        <v>0.6754522751034231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>498</v>
@@ -3403,19 +3403,19 @@
         <v>530737</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>502938</v>
+        <v>502295</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>556910</v>
+        <v>561611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6359365986515705</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6026269797615679</v>
+        <v>0.6018560594083784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6672964031144831</v>
+        <v>0.6729292140625158</v>
       </c>
     </row>
     <row r="15">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4015</v>
+        <v>4523</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01291266340176337</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05780607266485983</v>
+        <v>0.0651093069289726</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3575,19 +3575,19 @@
         <v>6937</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2889</v>
+        <v>2943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15863</v>
+        <v>14557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06068656593071627</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02527324055934718</v>
+        <v>0.02574895599146542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1387724985298732</v>
+        <v>0.1273489304542731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -3596,19 +3596,19 @@
         <v>7834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3131</v>
+        <v>2874</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16353</v>
+        <v>16471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04262847078393695</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01703756507801622</v>
+        <v>0.01563702401118826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08898643560457434</v>
+        <v>0.08962480679346692</v>
       </c>
     </row>
     <row r="18">
@@ -3625,19 +3625,19 @@
         <v>3074</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8885</v>
+        <v>8549</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04426010411645317</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01350084966024619</v>
+        <v>0.01361901090274916</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1279105273639237</v>
+        <v>0.1230660155530145</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -3646,19 +3646,19 @@
         <v>6310</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2295</v>
+        <v>2330</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12543</v>
+        <v>13286</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05520146004436136</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02007513643362899</v>
+        <v>0.02038283566887908</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1097300774507775</v>
+        <v>0.116229692584919</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -3667,19 +3667,19 @@
         <v>9384</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4511</v>
+        <v>4348</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17663</v>
+        <v>17030</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05106572827613911</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02454837663168659</v>
+        <v>0.02366203066932319</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09611427441802557</v>
+        <v>0.09266689359544988</v>
       </c>
     </row>
     <row r="19">
@@ -3696,19 +3696,19 @@
         <v>33881</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25554</v>
+        <v>25512</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42682</v>
+        <v>41910</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4877542332230152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3678690993210168</v>
+        <v>0.3672703835312318</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6144509774619901</v>
+        <v>0.6033293248225226</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -3717,19 +3717,19 @@
         <v>24243</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15572</v>
+        <v>16274</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34238</v>
+        <v>34525</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2120830063426453</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1362272089691669</v>
+        <v>0.1423668762426822</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2995236797967099</v>
+        <v>0.30203494909595</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -3738,19 +3738,19 @@
         <v>58124</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43436</v>
+        <v>45193</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71599</v>
+        <v>71073</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3162841911049364</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2363576111842255</v>
+        <v>0.2459212576962866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3896060456550076</v>
+        <v>0.3867446713747802</v>
       </c>
     </row>
     <row r="20">
@@ -3767,19 +3767,19 @@
         <v>31611</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23008</v>
+        <v>23476</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39647</v>
+        <v>40061</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4550729992587683</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3312196564953379</v>
+        <v>0.337958105841534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5707585304883903</v>
+        <v>0.5767123338093496</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -3788,19 +3788,19 @@
         <v>76818</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>66403</v>
+        <v>64981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87359</v>
+        <v>86299</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.672028967682277</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5809121278575194</v>
+        <v>0.5684749167849961</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7642393258843201</v>
+        <v>0.7549705152305738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -3809,19 +3809,19 @@
         <v>108429</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>93713</v>
+        <v>94246</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>123125</v>
+        <v>121147</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5900216098349875</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5099425217111424</v>
+        <v>0.5128442324559697</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6699883360378173</v>
+        <v>0.6592228900817458</v>
       </c>
     </row>
     <row r="21">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6928</v>
+        <v>5696</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00284777932293083</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009856974705623708</v>
+        <v>0.008103889104458211</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6903</v>
+        <v>6944</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001192829859227188</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004113430493439467</v>
+        <v>0.004138190537240985</v>
       </c>
     </row>
     <row r="23">
@@ -3976,19 +3976,19 @@
         <v>3832</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8825</v>
+        <v>8812</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005451416639217414</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001384641689738955</v>
+        <v>0.00142890916282281</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01255578851066392</v>
+        <v>0.01253638494256926</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -3997,19 +3997,19 @@
         <v>15768</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8808</v>
+        <v>8697</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25880</v>
+        <v>26214</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01616911788369085</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00903256907326973</v>
+        <v>0.008918541306280767</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02653829637279781</v>
+        <v>0.0268808222937667</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -4018,19 +4018,19 @@
         <v>19599</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11527</v>
+        <v>12063</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31087</v>
+        <v>30808</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01167986762341188</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006869487251754338</v>
+        <v>0.007188585225010471</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01852578182814408</v>
+        <v>0.01835935835999651</v>
       </c>
     </row>
     <row r="24">
@@ -4047,19 +4047,19 @@
         <v>12299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6205</v>
+        <v>6804</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21517</v>
+        <v>22429</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01749883187092486</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008828353316801582</v>
+        <v>0.009680689114886462</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03061274393750616</v>
+        <v>0.03191049439292026</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -4068,19 +4068,19 @@
         <v>14838</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8458</v>
+        <v>8012</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25644</v>
+        <v>24625</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01521539965823076</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008673295477065562</v>
+        <v>0.008216380764894988</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02629676435852979</v>
+        <v>0.02525196947408473</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -4089,19 +4089,19 @@
         <v>27137</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>17970</v>
+        <v>18033</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40173</v>
+        <v>39697</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01617184530094283</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01070910941560648</v>
+        <v>0.01074617961959437</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02393998279350695</v>
+        <v>0.02365652341706423</v>
       </c>
     </row>
     <row r="25">
@@ -4118,19 +4118,19 @@
         <v>246546</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>221554</v>
+        <v>220671</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>275651</v>
+        <v>271517</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3507677585038074</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3152110958130057</v>
+        <v>0.3139548213863114</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3921764146367339</v>
+        <v>0.3862944456488376</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>283</v>
@@ -4139,19 +4139,19 @@
         <v>303953</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>276370</v>
+        <v>276587</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>333486</v>
+        <v>336733</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3116899522058335</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2834042662634291</v>
+        <v>0.2836268656492802</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.341974245589914</v>
+        <v>0.3453042361775231</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>511</v>
@@ -4160,19 +4160,19 @@
         <v>550500</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>511570</v>
+        <v>511237</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>592625</v>
+        <v>589108</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3280582058166319</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3048586137966757</v>
+        <v>0.3046605757307286</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3531619465934242</v>
+        <v>0.3510658921861474</v>
       </c>
     </row>
     <row r="26">
@@ -4189,19 +4189,19 @@
         <v>438196</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>409840</v>
+        <v>412952</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>463644</v>
+        <v>463602</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6234342136631196</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5830912114691339</v>
+        <v>0.5875176962763538</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6596395319197345</v>
+        <v>0.6595800128749463</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>593</v>
@@ -4210,19 +4210,19 @@
         <v>640620</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>609163</v>
+        <v>608984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>668151</v>
+        <v>669540</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6569255302522449</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6246679053269372</v>
+        <v>0.6244839115855693</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6851575121902579</v>
+        <v>0.6865812698266944</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1007</v>
@@ -4231,19 +4231,19 @@
         <v>1078817</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1036742</v>
+        <v>1038959</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1117194</v>
+        <v>1120702</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6428972513997863</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6178234416966489</v>
+        <v>0.6191448976411712</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6657673175458628</v>
+        <v>0.6678575341954091</v>
       </c>
     </row>
     <row r="27">
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6096</v>
+        <v>5749</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01251562244587147</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04442824108549618</v>
+        <v>0.04190235061508859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8059</v>
+        <v>8303</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005760811220509609</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0361177823235393</v>
+        <v>0.03720860338788968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -4616,19 +4616,19 @@
         <v>3003</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8454</v>
+        <v>8289</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008332741644725401</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002256186729317766</v>
+        <v>0.002260728203990845</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02346091139975539</v>
+        <v>0.02300138305089078</v>
       </c>
     </row>
     <row r="5">
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7961</v>
+        <v>7373</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01013906517699839</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03567428967463569</v>
+        <v>0.03303948761322522</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7261</v>
+        <v>7550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006278561999068044</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0201507215005784</v>
+        <v>0.02095223945150437</v>
       </c>
     </row>
     <row r="6">
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5168</v>
+        <v>4788</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007436035076230175</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0376629999062453</v>
+        <v>0.03489711797122152</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5201</v>
+        <v>5159</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002831310041098544</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01443253591415898</v>
+        <v>0.01431695603627936</v>
       </c>
     </row>
     <row r="7">
@@ -4771,19 +4771,19 @@
         <v>36664</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27430</v>
+        <v>27311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47908</v>
+        <v>47648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2672221452088938</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1999214818854913</v>
+        <v>0.1990545723451841</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3491728975495005</v>
+        <v>0.3472762025767073</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -4792,19 +4792,19 @@
         <v>54983</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42356</v>
+        <v>42473</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69027</v>
+        <v>68482</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2464026146379809</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1898163215044228</v>
+        <v>0.1903374247012434</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3093390728004761</v>
+        <v>0.3068967135417558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -4813,19 +4813,19 @@
         <v>91647</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76771</v>
+        <v>76059</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110617</v>
+        <v>109256</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2543297620158638</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2130455856212391</v>
+        <v>0.2110705017913508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3069725858921299</v>
+        <v>0.3031941392885936</v>
       </c>
     </row>
     <row r="8">
@@ -4842,19 +4842,19 @@
         <v>97803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86221</v>
+        <v>86154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107242</v>
+        <v>106870</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7128261972690046</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6284082192451066</v>
+        <v>0.6279181680775006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7816171302915425</v>
+        <v>0.7789089573190969</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>140</v>
@@ -4863,19 +4863,19 @@
         <v>164613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>151361</v>
+        <v>150821</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>177796</v>
+        <v>177406</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7376975089645111</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6783119932230098</v>
+        <v>0.67589102537968</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7967749607245396</v>
+        <v>0.7950296329303268</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>240</v>
@@ -4884,19 +4884,19 @@
         <v>262416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>242976</v>
+        <v>243638</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>277814</v>
+        <v>278468</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7282276242992441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6742806964835713</v>
+        <v>0.6761169924019264</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7709591482597713</v>
+        <v>0.7727738197551641</v>
       </c>
     </row>
     <row r="9">
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6768</v>
+        <v>6683</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005655217454103884</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02010547540437509</v>
+        <v>0.0198552912864922</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6537</v>
+        <v>6675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002628604588173837</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009026977384426383</v>
+        <v>0.009217037687915607</v>
       </c>
     </row>
     <row r="11">
@@ -5051,19 +5051,19 @@
         <v>7275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2968</v>
+        <v>3007</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14150</v>
+        <v>14766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02161208654341895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008817099024686864</v>
+        <v>0.008934800134776582</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04203702001807546</v>
+        <v>0.04386736348175249</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -5072,19 +5072,19 @@
         <v>10554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4955</v>
+        <v>5346</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19856</v>
+        <v>19659</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02723160283244313</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01278434393293139</v>
+        <v>0.01379307200738983</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05123100894357526</v>
+        <v>0.05072363862391743</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -5093,19 +5093,19 @@
         <v>17829</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10318</v>
+        <v>10214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29189</v>
+        <v>27782</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02461959252151738</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01424813854687818</v>
+        <v>0.01410490180190318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04030675283316557</v>
+        <v>0.03836362100333081</v>
       </c>
     </row>
     <row r="12">
@@ -5122,19 +5122,19 @@
         <v>16494</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8987</v>
+        <v>9212</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27078</v>
+        <v>26271</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04900142812518094</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02669916929837697</v>
+        <v>0.02736817414052762</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0804442973508267</v>
+        <v>0.07804860756174822</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -5143,19 +5143,19 @@
         <v>12024</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6610</v>
+        <v>5973</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21412</v>
+        <v>20791</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03102488730377818</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01705508532309479</v>
+        <v>0.01541068307836306</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05524708004998697</v>
+        <v>0.05364386287384301</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -5164,19 +5164,19 @@
         <v>28518</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18721</v>
+        <v>18824</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>41349</v>
+        <v>41961</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.039380572662675</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02585121833907396</v>
+        <v>0.02599376961348187</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05709855285156672</v>
+        <v>0.05794322199160266</v>
       </c>
     </row>
     <row r="13">
@@ -5193,19 +5193,19 @@
         <v>89152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73887</v>
+        <v>73120</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108041</v>
+        <v>107037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2648589159248881</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2195091743856359</v>
+        <v>0.2172287766255032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3209743647294424</v>
+        <v>0.3179924416997023</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -5214,19 +5214,19 @@
         <v>121694</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104770</v>
+        <v>103180</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140524</v>
+        <v>140267</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3139937363034789</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.27032695317665</v>
+        <v>0.2662247227433097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3625778464516152</v>
+        <v>0.3619154687590244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -5235,19 +5235,19 @@
         <v>210846</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>186043</v>
+        <v>188036</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238166</v>
+        <v>238324</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2911553546966788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2569051356796517</v>
+        <v>0.2596570623955416</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3288807650734888</v>
+        <v>0.3290986054007569</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>221778</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>201228</v>
+        <v>203183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>239323</v>
+        <v>239076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6588723519524081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5978217012402712</v>
+        <v>0.6036306175650283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.710997662683531</v>
+        <v>0.7102625141951638</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>233</v>
@@ -5285,19 +5285,19 @@
         <v>243296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>222983</v>
+        <v>224935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>262387</v>
+        <v>264271</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6277497735602998</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5753383457246364</v>
+        <v>0.5803742048491367</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6770075402928918</v>
+        <v>0.6818684166637203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>437</v>
@@ -5306,19 +5306,19 @@
         <v>465074</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>436759</v>
+        <v>436986</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>488586</v>
+        <v>491163</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6422158755309549</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6031153602592512</v>
+        <v>0.6034287605532938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6746831857372473</v>
+        <v>0.6782413744899891</v>
       </c>
     </row>
     <row r="15">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5140</v>
+        <v>4844</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007048222012745482</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03829200105792726</v>
+        <v>0.03608745557238019</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4742</v>
+        <v>4855</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004545807306588726</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.022785548548508</v>
+        <v>0.02332565707713884</v>
       </c>
     </row>
     <row r="17">
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6091</v>
+        <v>6615</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02541590222004287</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08243736685623522</v>
+        <v>0.08951657627575019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -5494,19 +5494,19 @@
         <v>15974</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9200</v>
+        <v>9639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26312</v>
+        <v>25421</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.119005768139012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06853959815102306</v>
+        <v>0.07180826223367558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1960217070528217</v>
+        <v>0.1893861378265425</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -5515,19 +5515,19 @@
         <v>17852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10865</v>
+        <v>10383</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28432</v>
+        <v>28180</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08577743673864516</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05220325582131642</v>
+        <v>0.04988842695409478</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1366146413051649</v>
+        <v>0.1354000666710231</v>
       </c>
     </row>
     <row r="18">
@@ -5544,19 +5544,19 @@
         <v>8769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3653</v>
+        <v>3852</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15553</v>
+        <v>16736</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1186724555879051</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04943993902918159</v>
+        <v>0.05212812016842031</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2104843394068148</v>
+        <v>0.2264989446447588</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -5565,19 +5565,19 @@
         <v>12176</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6701</v>
+        <v>6737</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19886</v>
+        <v>20204</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09070872187519599</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04992495173812511</v>
+        <v>0.05018688170584135</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1481518354559623</v>
+        <v>0.150520735225575</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -5586,19 +5586,19 @@
         <v>20945</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13388</v>
+        <v>13029</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30711</v>
+        <v>31455</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1006370212896006</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06432697392091484</v>
+        <v>0.06260164077898729</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1475634416117386</v>
+        <v>0.1511378685313552</v>
       </c>
     </row>
     <row r="19">
@@ -5615,19 +5615,19 @@
         <v>13228</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7227</v>
+        <v>7034</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20977</v>
+        <v>21837</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1790147384477827</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09780406920839257</v>
+        <v>0.09519129879934025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2838825795485579</v>
+        <v>0.2955307486554338</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -5636,19 +5636,19 @@
         <v>26974</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18424</v>
+        <v>18831</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37489</v>
+        <v>37873</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2009557572087564</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1372593535955383</v>
+        <v>0.1402902736619359</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2792889360452833</v>
+        <v>0.2821525916172701</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -5657,19 +5657,19 @@
         <v>40202</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30376</v>
+        <v>30538</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53312</v>
+        <v>52838</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1931657744420055</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1459540513256242</v>
+        <v>0.1467299190799227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2561578419431056</v>
+        <v>0.2538826094418018</v>
       </c>
     </row>
     <row r="20">
@@ -5686,19 +5686,19 @@
         <v>50017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42010</v>
+        <v>40410</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57453</v>
+        <v>58626</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6768969037442694</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5685328814555886</v>
+        <v>0.5468811005373729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7775322381546025</v>
+        <v>0.7934042762723819</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -5707,19 +5707,19 @@
         <v>78159</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65583</v>
+        <v>65978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88213</v>
+        <v>90818</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5822815307642901</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4885870088562542</v>
+        <v>0.4915299317653856</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6571864258113981</v>
+        <v>0.6765919749101209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -5728,19 +5728,19 @@
         <v>128176</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>112436</v>
+        <v>112763</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141587</v>
+        <v>141849</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.61587396022316</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5402456029341844</v>
+        <v>0.5418161163521645</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6803088026174517</v>
+        <v>0.6815681235647632</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>3621</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8304</v>
+        <v>8662</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006610866869284582</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001712907744619339</v>
+        <v>0.001721985471281883</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01516140479894868</v>
+        <v>0.01581546961859547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7812</v>
+        <v>7264</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002995628591691771</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01048698503461991</v>
+        <v>0.009751117320241563</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -5874,19 +5874,19 @@
         <v>5852</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2579</v>
+        <v>1904</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12136</v>
+        <v>13460</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004527424046106509</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001995212134013513</v>
+        <v>0.001472818355335156</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009388394296893622</v>
+        <v>0.01041315846304008</v>
       </c>
     </row>
     <row r="23">
@@ -5903,19 +5903,19 @@
         <v>9153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3951</v>
+        <v>4267</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17526</v>
+        <v>17484</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01671119089391599</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007213839361500994</v>
+        <v>0.007790060623372946</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03199916763950197</v>
+        <v>0.03192336353729314</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -5924,19 +5924,19 @@
         <v>28791</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19038</v>
+        <v>18900</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40900</v>
+        <v>41197</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03864815545197749</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02555647406658066</v>
+        <v>0.02537067785387441</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05490298984999237</v>
+        <v>0.05530183019369736</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>34</v>
@@ -5945,19 +5945,19 @@
         <v>37943</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26622</v>
+        <v>26318</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>52891</v>
+        <v>52424</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02935334830137657</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0205951031159953</v>
+        <v>0.02035976753960385</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04091731899877334</v>
+        <v>0.04055543092780461</v>
       </c>
     </row>
     <row r="24">
@@ -5974,19 +5974,19 @@
         <v>26283</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17575</v>
+        <v>17520</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39617</v>
+        <v>39341</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04798833568722623</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03208934647979596</v>
+        <v>0.03198927010427723</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07233371367383948</v>
+        <v>0.07182974189424553</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -5995,19 +5995,19 @@
         <v>24200</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15679</v>
+        <v>15534</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34813</v>
+        <v>34292</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03248578676337768</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02104793005118236</v>
+        <v>0.02085289477329074</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04673214998206971</v>
+        <v>0.04603268999906066</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -6016,19 +6016,19 @@
         <v>50483</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37011</v>
+        <v>37467</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>67178</v>
+        <v>66324</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03905429820025175</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02863176658379874</v>
+        <v>0.02898446584597696</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05196925422202105</v>
+        <v>0.05130925322899977</v>
       </c>
     </row>
     <row r="25">
@@ -6045,19 +6045,19 @@
         <v>139044</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118934</v>
+        <v>118947</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>158361</v>
+        <v>159570</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2538694421933689</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.217152980450869</v>
+        <v>0.21717592831507</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2891393473126947</v>
+        <v>0.2913458130563975</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>195</v>
@@ -6066,19 +6066,19 @@
         <v>203652</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178334</v>
+        <v>179595</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>230286</v>
+        <v>229319</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2733790671630428</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2393931099976021</v>
+        <v>0.241086082557777</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3091330908718823</v>
+        <v>0.3078344817147946</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>325</v>
@@ -6087,19 +6087,19 @@
         <v>342696</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>306655</v>
+        <v>313032</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>372483</v>
+        <v>375954</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.26511273655045</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.237231665235937</v>
+        <v>0.2421643209881038</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2881568683567961</v>
+        <v>0.2908415426898989</v>
       </c>
     </row>
     <row r="26">
@@ -6116,19 +6116,19 @@
         <v>369598</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>347872</v>
+        <v>346327</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>391536</v>
+        <v>392924</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6748201643562043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6351510003920831</v>
+        <v>0.6323316184732642</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7148741030818463</v>
+        <v>0.7174086900655431</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>448</v>
@@ -6137,19 +6137,19 @@
         <v>486068</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>458798</v>
+        <v>460736</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>512353</v>
+        <v>513751</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6524913620299103</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6158843561959099</v>
+        <v>0.6184852608157034</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6877751175142958</v>
+        <v>0.6896519813368702</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>795</v>
@@ -6158,19 +6158,19 @@
         <v>855667</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>821239</v>
+        <v>823183</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>894076</v>
+        <v>891161</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6619521929018152</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6353188486389558</v>
+        <v>0.6368225275241335</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6916662256006817</v>
+        <v>0.689410794624299</v>
       </c>
     </row>
     <row r="27">
@@ -6504,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4136</v>
+        <v>4999</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.005820060139527215</v>
+        <v>0.005820060139527214</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02937243962842296</v>
+        <v>0.03550214269872742</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4146</v>
+        <v>4143</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002153787669905514</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01089681505922024</v>
+        <v>0.01088864541533662</v>
       </c>
     </row>
     <row r="5">
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3536</v>
+        <v>4293</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.005802876929335778</v>
+        <v>0.005802876929335777</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02511687730751355</v>
+        <v>0.03049021606463649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -6585,19 +6585,19 @@
         <v>3645</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1461</v>
+        <v>1492</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8478</v>
+        <v>9328</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01520932910510016</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006096419246098803</v>
+        <v>0.006223868394464328</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03537280654666374</v>
+        <v>0.03892053468563655</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -6606,19 +6606,19 @@
         <v>4462</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1672</v>
+        <v>2126</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9084</v>
+        <v>10016</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01172835120658604</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004394726525384271</v>
+        <v>0.005588180818499908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02387661791178301</v>
+        <v>0.02632585901133657</v>
       </c>
     </row>
     <row r="6">
@@ -6635,19 +6635,19 @@
         <v>2276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6476</v>
+        <v>6180</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01616636909141025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00427578994780707</v>
+        <v>0.004160719509607661</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04599644329374353</v>
+        <v>0.04389407975962428</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -6656,19 +6656,19 @@
         <v>1810</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5312</v>
+        <v>5652</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.007551091043273997</v>
+        <v>0.007551091043273996</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001287420246686882</v>
+        <v>0.001261684608485542</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02216530807803544</v>
+        <v>0.02358307962955478</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -6677,19 +6677,19 @@
         <v>4086</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1502</v>
+        <v>1656</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8390</v>
+        <v>8660</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01073928483990903</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003947296001985346</v>
+        <v>0.004353061326858255</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02205156636089347</v>
+        <v>0.02276157635045314</v>
       </c>
     </row>
     <row r="7">
@@ -6706,19 +6706,19 @@
         <v>28790</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19506</v>
+        <v>20157</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40277</v>
+        <v>40957</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2044814480917443</v>
+        <v>0.2044814480917442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1385398476647105</v>
+        <v>0.1431672008115628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2860671169405959</v>
+        <v>0.2908928425095143</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -6727,19 +6727,19 @@
         <v>41245</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32062</v>
+        <v>31691</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50291</v>
+        <v>51083</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1720912227306852</v>
+        <v>0.1720912227306851</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.133777698475916</v>
+        <v>0.1322267786416913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2098364127565893</v>
+        <v>0.2131418120674061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -6748,19 +6748,19 @@
         <v>70035</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57019</v>
+        <v>56417</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85618</v>
+        <v>84526</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1840776397668804</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1498678329567743</v>
+        <v>0.1482837907742495</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2250345859779863</v>
+        <v>0.2221660772278609</v>
       </c>
     </row>
     <row r="8">
@@ -6777,19 +6777,19 @@
         <v>108093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97057</v>
+        <v>96132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117816</v>
+        <v>117368</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7677292457479824</v>
+        <v>0.7677292457479823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6893439814022251</v>
+        <v>0.6827774373541304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8367850175283588</v>
+        <v>0.8336009621758863</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>335</v>
@@ -6798,19 +6798,19 @@
         <v>192969</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>182843</v>
+        <v>183222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>202331</v>
+        <v>203130</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8051483571209406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7628976445404314</v>
+        <v>0.7644784723545146</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8442098786107264</v>
+        <v>0.8475454102301353</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>471</v>
@@ -6819,19 +6819,19 @@
         <v>301062</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>285936</v>
+        <v>286492</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>314684</v>
+        <v>315100</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7913009365167188</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7515460568836101</v>
+        <v>0.7530081238807542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8271052631302124</v>
+        <v>0.8281988749958413</v>
       </c>
     </row>
     <row r="9">
@@ -6923,19 +6923,19 @@
         <v>4873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1887</v>
+        <v>1819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11197</v>
+        <v>11136</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01129377792425583</v>
+        <v>0.01129377792425584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004372574301163583</v>
+        <v>0.004216112410833996</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0259491597500603</v>
+        <v>0.02580757702108038</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -6944,19 +6944,19 @@
         <v>3972</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1378</v>
+        <v>1354</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9547</v>
+        <v>8416</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007896678023130757</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002738974950787371</v>
+        <v>0.002691644135404111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0189799933760703</v>
+        <v>0.01673111394732745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -6965,19 +6965,19 @@
         <v>8845</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4608</v>
+        <v>4267</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16245</v>
+        <v>16397</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00946520600443259</v>
+        <v>0.009465206004432588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00493081541854003</v>
+        <v>0.004566481916724275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01738377637283968</v>
+        <v>0.01754601550251415</v>
       </c>
     </row>
     <row r="11">
@@ -6994,19 +6994,19 @@
         <v>8233</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3967</v>
+        <v>3969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15114</v>
+        <v>14747</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01908128078101843</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009194076522299128</v>
+        <v>0.009198028077182601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03502859498144433</v>
+        <v>0.0341766516894665</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -7015,19 +7015,19 @@
         <v>12160</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6744</v>
+        <v>7199</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19740</v>
+        <v>19835</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02417434237934036</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01340660491254332</v>
+        <v>0.01431156409892137</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03924309622012247</v>
+        <v>0.03943123233634053</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -7036,19 +7036,19 @@
         <v>20393</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13457</v>
+        <v>13709</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30076</v>
+        <v>31103</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02182274547021913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01440064898860291</v>
+        <v>0.01466970771029416</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03218449395666418</v>
+        <v>0.03328271324248441</v>
       </c>
     </row>
     <row r="12">
@@ -7065,19 +7065,19 @@
         <v>16541</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8546</v>
+        <v>9125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30658</v>
+        <v>33312</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03833441491390947</v>
+        <v>0.03833441491390948</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01980573929028964</v>
+        <v>0.02114781090716776</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07105293031783386</v>
+        <v>0.07720444233469251</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -7086,19 +7086,19 @@
         <v>26794</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18310</v>
+        <v>17965</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38511</v>
+        <v>37332</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05326607430991705</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03640100936219196</v>
+        <v>0.03571461506109343</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07656038817300477</v>
+        <v>0.07421614893125736</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -7107,19 +7107,19 @@
         <v>43334</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32105</v>
+        <v>32044</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61065</v>
+        <v>61043</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04637174495500181</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03435565244966533</v>
+        <v>0.03428966704941701</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06534520910231881</v>
+        <v>0.06532104418363631</v>
       </c>
     </row>
     <row r="13">
@@ -7136,19 +7136,19 @@
         <v>85860</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68910</v>
+        <v>67290</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105194</v>
+        <v>104261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1989884454775289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1597058923038392</v>
+        <v>0.1559494828984409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2437968282947944</v>
+        <v>0.2416348216243643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>130</v>
@@ -7157,19 +7157,19 @@
         <v>95669</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80417</v>
+        <v>82086</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114436</v>
+        <v>112902</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.190189449192618</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1598692165145824</v>
+        <v>0.1631876773258566</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2274980336294473</v>
+        <v>0.2244496407046846</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -7178,19 +7178,19 @@
         <v>181529</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158421</v>
+        <v>156858</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207877</v>
+        <v>206719</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1942521710088598</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1695251362070339</v>
+        <v>0.1678526756931037</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2224474077372408</v>
+        <v>0.2212077442734742</v>
       </c>
     </row>
     <row r="14">
@@ -7207,19 +7207,19 @@
         <v>315976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>294969</v>
+        <v>294555</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>335746</v>
+        <v>334836</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7323020809032873</v>
+        <v>0.7323020809032874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6836169252895766</v>
+        <v>0.6826565571697386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7781213267850147</v>
+        <v>0.7760120752099007</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>477</v>
@@ -7228,19 +7228,19 @@
         <v>364423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>344238</v>
+        <v>345653</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383522</v>
+        <v>381113</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7244734560949937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6843450483173025</v>
+        <v>0.6871574907792074</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7624414176441042</v>
+        <v>0.7576525460194168</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>759</v>
@@ -7249,19 +7249,19 @@
         <v>680399</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>648243</v>
+        <v>650458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>706627</v>
+        <v>706751</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7280881325614867</v>
+        <v>0.7280881325614866</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6936779489265066</v>
+        <v>0.6960485777235119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7561541302027595</v>
+        <v>0.7562865488544762</v>
       </c>
     </row>
     <row r="15">
@@ -7400,19 +7400,19 @@
         <v>11414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5874</v>
+        <v>5738</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20154</v>
+        <v>20470</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07164682766606792</v>
+        <v>0.07164682766606793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03687281255383446</v>
+        <v>0.03601576089016844</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.126505930457894</v>
+        <v>0.1284878740744173</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -7421,19 +7421,19 @@
         <v>16951</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10016</v>
+        <v>10954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25399</v>
+        <v>24840</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08917231402868733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05268931026682645</v>
+        <v>0.05762268591804301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1336111728339734</v>
+        <v>0.1306715175477858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -7442,19 +7442,19 @@
         <v>28366</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19517</v>
+        <v>19354</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41044</v>
+        <v>40261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08118153068088092</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05585649436556128</v>
+        <v>0.05539106968358443</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1174665050758585</v>
+        <v>0.115226436167299</v>
       </c>
     </row>
     <row r="18">
@@ -7471,19 +7471,19 @@
         <v>18551</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10706</v>
+        <v>10621</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28732</v>
+        <v>28497</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1164436620470738</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06720114147898218</v>
+        <v>0.06666980491437781</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1803497206094571</v>
+        <v>0.1788730626989525</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -7492,19 +7492,19 @@
         <v>12293</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6856</v>
+        <v>7348</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19907</v>
+        <v>20142</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06466908683724333</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03606595189194089</v>
+        <v>0.03865611018775141</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1047226280832234</v>
+        <v>0.1059585693576436</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -7513,19 +7513,19 @@
         <v>30845</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22094</v>
+        <v>21684</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>44941</v>
+        <v>43788</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08827581619506002</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06323321375895771</v>
+        <v>0.06205842013702115</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1286191020302095</v>
+        <v>0.1253191657173557</v>
       </c>
     </row>
     <row r="19">
@@ -7542,19 +7542,19 @@
         <v>23211</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13869</v>
+        <v>14705</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36172</v>
+        <v>37198</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1456953719149877</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08705704540015032</v>
+        <v>0.09230000254327245</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2270499677722759</v>
+        <v>0.2334872668604625</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -7563,19 +7563,19 @@
         <v>44481</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34285</v>
+        <v>33877</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56590</v>
+        <v>55913</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2339942997793929</v>
+        <v>0.2339942997793928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1803544841101008</v>
+        <v>0.1782088632317522</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2976917813075601</v>
+        <v>0.2941314928588064</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -7584,19 +7584,19 @@
         <v>67693</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53944</v>
+        <v>53877</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>85927</v>
+        <v>84732</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1937342129658826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1543845700989152</v>
+        <v>0.1541940983181707</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2459189972727094</v>
+        <v>0.2424984948397551</v>
       </c>
     </row>
     <row r="20">
@@ -7613,19 +7613,19 @@
         <v>106138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92114</v>
+        <v>92724</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119603</v>
+        <v>119512</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6662141383718705</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5781889007342269</v>
+        <v>0.5820159609308322</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7507357028571419</v>
+        <v>0.7501613639679602</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -7634,19 +7634,19 @@
         <v>116370</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103133</v>
+        <v>103956</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>128872</v>
+        <v>129560</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6121642993546765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5425287249610967</v>
+        <v>0.546858922648197</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6779308758087466</v>
+        <v>0.6815514871599802</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>238</v>
@@ -7655,19 +7655,19 @@
         <v>222508</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>203608</v>
+        <v>203657</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>240103</v>
+        <v>239796</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6368084401581765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5827179863276859</v>
+        <v>0.5828583957889629</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6871642327817761</v>
+        <v>0.6862851314379702</v>
       </c>
     </row>
     <row r="21">
@@ -7759,19 +7759,19 @@
         <v>5693</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2248</v>
+        <v>2568</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12115</v>
+        <v>12204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007780979709607313</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003072841229509012</v>
+        <v>0.003509545132298791</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01655906855522766</v>
+        <v>0.01668139808522718</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -7780,19 +7780,19 @@
         <v>3972</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1358</v>
+        <v>1413</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9416</v>
+        <v>9720</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004258409853288537</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001456360889635891</v>
+        <v>0.001514358921884702</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0100942226451075</v>
+        <v>0.01042064220294126</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -7801,19 +7801,19 @@
         <v>9665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5129</v>
+        <v>5139</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17123</v>
+        <v>17460</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.005806791037523687</v>
+        <v>0.005806791037523688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003081774141851771</v>
+        <v>0.003087625892752771</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01028819345064008</v>
+        <v>0.01049037655418138</v>
       </c>
     </row>
     <row r="23">
@@ -7830,19 +7830,19 @@
         <v>20465</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13223</v>
+        <v>12795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31077</v>
+        <v>31545</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0279727246785925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0180745635522063</v>
+        <v>0.0174896928740521</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04247780635846192</v>
+        <v>0.04311749593062372</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -7851,19 +7851,19 @@
         <v>32757</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23224</v>
+        <v>23707</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>44157</v>
+        <v>44252</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0351171252976355</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02489751854309065</v>
+        <v>0.0254150618097621</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0473391015318999</v>
+        <v>0.04744098294884525</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>65</v>
@@ -7872,19 +7872,19 @@
         <v>53221</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41057</v>
+        <v>41611</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>68659</v>
+        <v>68683</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03197673179448873</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02466809597976446</v>
+        <v>0.025000769296105</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04125221895560998</v>
+        <v>0.04126667885173099</v>
       </c>
     </row>
     <row r="24">
@@ -7901,19 +7901,19 @@
         <v>37368</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25695</v>
+        <v>25892</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>54946</v>
+        <v>55253</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05107753863020176</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03512219974459052</v>
+        <v>0.03539115052587741</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07510485612125398</v>
+        <v>0.07552351476807447</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>50</v>
@@ -7922,19 +7922,19 @@
         <v>40897</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30200</v>
+        <v>30357</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54374</v>
+        <v>53737</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04384397532675558</v>
+        <v>0.04384397532675559</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03237652774355698</v>
+        <v>0.0325441296656847</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05829215314988202</v>
+        <v>0.05760929844077087</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -7943,19 +7943,19 @@
         <v>78265</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61325</v>
+        <v>61824</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>101318</v>
+        <v>100681</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04702356118903134</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03684539878558189</v>
+        <v>0.03714528764610311</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06087445337994684</v>
+        <v>0.06049167354336071</v>
       </c>
     </row>
     <row r="25">
@@ -7972,19 +7972,19 @@
         <v>137862</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>116171</v>
+        <v>115540</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>165600</v>
+        <v>163093</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.188440267032851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1587909524981797</v>
+        <v>0.1579284925855649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2263551637862786</v>
+        <v>0.2229276987716279</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>254</v>
@@ -7993,19 +7993,19 @@
         <v>181395</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>160287</v>
+        <v>161831</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>204093</v>
+        <v>203726</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1944665039823893</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1718375664953406</v>
+        <v>0.1734928427332409</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2188001594523168</v>
+        <v>0.2184070829551295</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>376</v>
@@ -8014,19 +8014,19 @@
         <v>319257</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>287998</v>
+        <v>288179</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>352843</v>
+        <v>354283</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1918176106218588</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1730364025670682</v>
+        <v>0.1731455403889029</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2119970016837243</v>
+        <v>0.2128620074268029</v>
       </c>
     </row>
     <row r="26">
@@ -8043,19 +8043,19 @@
         <v>530207</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>502599</v>
+        <v>501244</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>556822</v>
+        <v>556566</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7247284899487474</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6869923461105973</v>
+        <v>0.6851401723323788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7611075002773072</v>
+        <v>0.7607576985846234</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>957</v>
@@ -8064,19 +8064,19 @@
         <v>673762</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>649278</v>
+        <v>647157</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>698574</v>
+        <v>696338</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.722313985539931</v>
+        <v>0.7223139855399311</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6960649428974014</v>
+        <v>0.693792112669926</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.748913235832899</v>
+        <v>0.7465170001231198</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1468</v>
@@ -8085,19 +8085,19 @@
         <v>1203969</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1166648</v>
+        <v>1165901</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1239303</v>
+        <v>1236781</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7233753053570974</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7009514955610854</v>
+        <v>0.7005030855604651</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.744604588355512</v>
+        <v>0.743089408889276</v>
       </c>
     </row>
     <row r="27">
